--- a/539尾數預測.xlsx
+++ b/539尾數預測.xlsx
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,8 +180,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -747,12 +761,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -907,6 +967,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -11271,1267 +11339,1352 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:T26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5">
+    <row r="1" spans="1:20" ht="20.25" thickBot="1">
       <c r="B1" s="139">
         <v>5</v>
       </c>
       <c r="H1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+      <c r="M1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A2" s="140">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="146">
         <f>10+(A2-1)*5</f>
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="146">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="146">
         <f>B2*9.9</f>
         <v>99</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="146">
         <f>D2-C2</f>
         <v>89</v>
       </c>
-      <c r="G2">
-        <f>10+(A2-1)*10</f>
+      <c r="F2" s="141"/>
+      <c r="G2" s="147">
+        <f t="shared" ref="G2:G20" si="0">10+(A2-1)*10</f>
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="147">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="147">
         <f>G2*9.9</f>
         <v>99</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="147">
         <f>I2-H2</f>
         <v>89</v>
       </c>
-      <c r="L2">
-        <f>10+(A2-1)*15</f>
+      <c r="K2" s="141"/>
+      <c r="L2" s="146">
+        <f t="shared" ref="L2:L21" si="1">10+(A2-1)*15</f>
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="146">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="146">
         <f>L2*9.9</f>
         <v>99</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="146">
         <f>N2-M2</f>
         <v>89</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="141"/>
+      <c r="Q2" s="147">
         <f>10+(A2-1)*20</f>
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="147">
         <v>10</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="147">
         <f>Q2*9.9</f>
         <v>99</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="147">
         <f>S2-R2</f>
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
+    <row r="3" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A3" s="142">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B18" si="0">10+(A3-1)*5</f>
+      <c r="B3" s="146">
+        <f t="shared" ref="B3:B19" si="2">10+(A3-1)*5</f>
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="146">
         <v>25</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D18" si="1">B3*9.9</f>
+      <c r="D3" s="146">
+        <f t="shared" ref="D3:D19" si="3">B3*9.9</f>
         <v>148.5</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="2">D3-C3</f>
+      <c r="E3" s="146">
+        <f t="shared" ref="E3:E19" si="4">D3-C3</f>
         <v>123.5</v>
       </c>
-      <c r="G3">
-        <f>10+(A3-1)*10</f>
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I26" si="3">G3*9.9</f>
-        <v>198</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J26" si="4">I3-H3</f>
-        <v>168</v>
-      </c>
-      <c r="L3">
-        <f>10+(A3-1)*15</f>
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>35</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N26" si="5">L3*9.9</f>
-        <v>247.5</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O26" si="6">N3-M3</f>
-        <v>212.5</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q26" si="7">10+(A3-1)*20</f>
-        <v>30</v>
-      </c>
-      <c r="R3">
-        <v>40</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S26" si="8">Q3*9.9</f>
-        <v>297</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T26" si="9">S3-R3</f>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="F3" s="143"/>
+      <c r="G3" s="147">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="H3" s="147">
+        <v>30</v>
+      </c>
+      <c r="I3" s="147">
+        <f t="shared" ref="I3:I20" si="5">G3*9.9</f>
+        <v>198</v>
+      </c>
+      <c r="J3" s="147">
+        <f t="shared" ref="J3:J20" si="6">I3-H3</f>
+        <v>168</v>
+      </c>
+      <c r="K3" s="143"/>
+      <c r="L3" s="146">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M3" s="146">
+        <v>35</v>
+      </c>
+      <c r="N3" s="146">
+        <f t="shared" ref="N3:N21" si="7">L3*9.9</f>
+        <v>247.5</v>
+      </c>
+      <c r="O3" s="146">
+        <f t="shared" ref="O3:O21" si="8">N3-M3</f>
+        <v>212.5</v>
+      </c>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="147">
+        <f t="shared" ref="Q3:Q21" si="9">10+(A3-1)*20</f>
+        <v>30</v>
+      </c>
+      <c r="R3" s="147">
+        <v>40</v>
+      </c>
+      <c r="S3" s="147">
+        <f t="shared" ref="S3:S21" si="10">Q3*9.9</f>
+        <v>297</v>
+      </c>
+      <c r="T3" s="147">
+        <f t="shared" ref="T3:T21" si="11">S3-R3</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A4" s="142">
+        <v>3</v>
+      </c>
+      <c r="B4" s="146">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="146">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="146">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="E4" s="146">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="F4" s="143"/>
+      <c r="G4" s="147">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="147">
+        <v>60</v>
+      </c>
+      <c r="I4" s="147">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="J4" s="147">
+        <f t="shared" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="K4" s="143"/>
+      <c r="L4" s="146">
         <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="M4" s="146">
+        <v>75</v>
+      </c>
+      <c r="N4" s="146">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="O4" s="146">
+        <f t="shared" si="8"/>
+        <v>321</v>
+      </c>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="147">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="R4" s="147">
+        <v>90</v>
+      </c>
+      <c r="S4" s="147">
+        <f t="shared" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="T4" s="147">
+        <f t="shared" si="11"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A5" s="142">
+        <v>4</v>
+      </c>
+      <c r="B5" s="146">
         <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="G4">
-        <f>10+(A4-1)*10</f>
+        <v>25</v>
+      </c>
+      <c r="C5" s="146">
+        <v>70</v>
+      </c>
+      <c r="D5" s="146">
+        <f t="shared" si="3"/>
+        <v>247.5</v>
+      </c>
+      <c r="E5" s="146">
+        <f t="shared" si="4"/>
+        <v>177.5</v>
+      </c>
+      <c r="F5" s="143"/>
+      <c r="G5" s="147">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H5" s="147">
+        <v>100</v>
+      </c>
+      <c r="I5" s="147">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="J5" s="147">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="K5" s="143"/>
+      <c r="L5" s="146">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="M5" s="146">
+        <v>130</v>
+      </c>
+      <c r="N5" s="146">
+        <f t="shared" si="7"/>
+        <v>544.5</v>
+      </c>
+      <c r="O5" s="146">
+        <f t="shared" si="8"/>
+        <v>414.5</v>
+      </c>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="147">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="R5" s="147">
+        <v>160</v>
+      </c>
+      <c r="S5" s="147">
+        <f t="shared" si="10"/>
+        <v>693</v>
+      </c>
+      <c r="T5" s="147">
+        <f t="shared" si="11"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A6" s="142">
+        <v>5</v>
+      </c>
+      <c r="B6" s="146">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
+      <c r="C6" s="146">
+        <v>100</v>
+      </c>
+      <c r="D6" s="146">
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="J4">
+      <c r="E6" s="146">
         <f t="shared" si="4"/>
-        <v>237</v>
-      </c>
-      <c r="L4">
-        <f>10+(A4-1)*15</f>
+        <v>197</v>
+      </c>
+      <c r="F6" s="143"/>
+      <c r="G6" s="147">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="147">
+        <v>150</v>
+      </c>
+      <c r="I6" s="147">
+        <f t="shared" si="5"/>
+        <v>495</v>
+      </c>
+      <c r="J6" s="147">
+        <f t="shared" si="6"/>
+        <v>345</v>
+      </c>
+      <c r="K6" s="143"/>
+      <c r="L6" s="146">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M6" s="146">
+        <v>200</v>
+      </c>
+      <c r="N6" s="146">
+        <f t="shared" si="7"/>
+        <v>693</v>
+      </c>
+      <c r="O6" s="146">
+        <f t="shared" si="8"/>
+        <v>493</v>
+      </c>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="147">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="R6" s="147">
+        <v>250</v>
+      </c>
+      <c r="S6" s="147">
+        <f t="shared" si="10"/>
+        <v>891</v>
+      </c>
+      <c r="T6" s="147">
+        <f t="shared" si="11"/>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A7" s="142">
+        <v>6</v>
+      </c>
+      <c r="B7" s="146">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C7" s="146">
+        <v>135</v>
+      </c>
+      <c r="D7" s="146">
+        <f t="shared" si="3"/>
+        <v>346.5</v>
+      </c>
+      <c r="E7" s="146">
+        <f t="shared" si="4"/>
+        <v>211.5</v>
+      </c>
+      <c r="F7" s="143"/>
+      <c r="G7" s="147">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H7" s="147">
+        <v>210</v>
+      </c>
+      <c r="I7" s="147">
+        <f t="shared" si="5"/>
+        <v>594</v>
+      </c>
+      <c r="J7" s="147">
+        <f t="shared" si="6"/>
+        <v>384</v>
+      </c>
+      <c r="K7" s="143"/>
+      <c r="L7" s="146">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="M7" s="146">
+        <v>285</v>
+      </c>
+      <c r="N7" s="146">
+        <f t="shared" si="7"/>
+        <v>841.5</v>
+      </c>
+      <c r="O7" s="146">
+        <f t="shared" si="8"/>
+        <v>556.5</v>
+      </c>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="147">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="R7" s="147">
+        <v>360</v>
+      </c>
+      <c r="S7" s="147">
+        <f t="shared" si="10"/>
+        <v>1089</v>
+      </c>
+      <c r="T7" s="147">
+        <f t="shared" si="11"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A8" s="142">
+        <v>7</v>
+      </c>
+      <c r="B8" s="146">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="M4">
-        <v>75</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="6"/>
-        <v>321</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="R4">
-        <v>90</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="8"/>
-        <v>495</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="9"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>247.5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>177.5</v>
-      </c>
-      <c r="G5">
-        <f>10+(A5-1)*10</f>
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
+      <c r="C8" s="146">
+        <v>175</v>
+      </c>
+      <c r="D8" s="146">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
-      <c r="J5">
+      <c r="E8" s="146">
         <f t="shared" si="4"/>
-        <v>296</v>
-      </c>
-      <c r="L5">
-        <f>10+(A5-1)*15</f>
-        <v>55</v>
-      </c>
-      <c r="M5">
+        <v>221</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="147">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H8" s="147">
+        <v>280</v>
+      </c>
+      <c r="I8" s="147">
+        <f t="shared" si="5"/>
+        <v>693</v>
+      </c>
+      <c r="J8" s="147">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+      <c r="K8" s="143"/>
+      <c r="L8" s="146">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="146">
+        <v>385</v>
+      </c>
+      <c r="N8" s="146">
+        <f t="shared" si="7"/>
+        <v>990</v>
+      </c>
+      <c r="O8" s="146">
+        <f t="shared" si="8"/>
+        <v>605</v>
+      </c>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="147">
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="N5">
+      <c r="R8" s="147">
+        <v>490</v>
+      </c>
+      <c r="S8" s="147">
+        <f t="shared" si="10"/>
+        <v>1287</v>
+      </c>
+      <c r="T8" s="147">
+        <f t="shared" si="11"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A9" s="142">
+        <v>8</v>
+      </c>
+      <c r="B9" s="146">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="146">
+        <v>220</v>
+      </c>
+      <c r="D9" s="146">
+        <f t="shared" si="3"/>
+        <v>445.5</v>
+      </c>
+      <c r="E9" s="146">
+        <f t="shared" si="4"/>
+        <v>225.5</v>
+      </c>
+      <c r="F9" s="143"/>
+      <c r="G9" s="147">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H9" s="147">
+        <v>360</v>
+      </c>
+      <c r="I9" s="147">
         <f t="shared" si="5"/>
-        <v>544.5</v>
-      </c>
-      <c r="O5">
+        <v>792</v>
+      </c>
+      <c r="J9" s="147">
         <f t="shared" si="6"/>
-        <v>414.5</v>
-      </c>
-      <c r="Q5">
+        <v>432</v>
+      </c>
+      <c r="K9" s="143"/>
+      <c r="L9" s="146">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="M9" s="146">
+        <v>500</v>
+      </c>
+      <c r="N9" s="146">
         <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="R5">
-        <v>160</v>
-      </c>
-      <c r="S5">
+        <v>1138.5</v>
+      </c>
+      <c r="O9" s="146">
         <f t="shared" si="8"/>
-        <v>693</v>
-      </c>
-      <c r="T5">
+        <v>638.5</v>
+      </c>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="147">
         <f t="shared" si="9"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>297</v>
-      </c>
-      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="R9" s="147">
+        <v>640</v>
+      </c>
+      <c r="S9" s="147">
+        <f t="shared" si="10"/>
+        <v>1485</v>
+      </c>
+      <c r="T9" s="147">
+        <f t="shared" si="11"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A10" s="142">
+        <v>9</v>
+      </c>
+      <c r="B10" s="146">
         <f t="shared" si="2"/>
-        <v>197</v>
-      </c>
-      <c r="G6">
-        <f>10+(A6-1)*10</f>
         <v>50</v>
       </c>
-      <c r="H6">
-        <v>150</v>
-      </c>
-      <c r="I6">
+      <c r="C10" s="146">
+        <v>270</v>
+      </c>
+      <c r="D10" s="146">
         <f t="shared" si="3"/>
         <v>495</v>
       </c>
-      <c r="J6">
+      <c r="E10" s="146">
         <f t="shared" si="4"/>
-        <v>345</v>
-      </c>
-      <c r="L6">
-        <f>10+(A6-1)*15</f>
-        <v>70</v>
-      </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6">
+        <v>225</v>
+      </c>
+      <c r="F10" s="143"/>
+      <c r="G10" s="147">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H10" s="147">
+        <v>450</v>
+      </c>
+      <c r="I10" s="147">
         <f t="shared" si="5"/>
-        <v>693</v>
-      </c>
-      <c r="O6">
+        <v>891</v>
+      </c>
+      <c r="J10" s="147">
         <f t="shared" si="6"/>
-        <v>493</v>
-      </c>
-      <c r="Q6">
+        <v>441</v>
+      </c>
+      <c r="K10" s="143"/>
+      <c r="L10" s="146">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="M10" s="146">
+        <v>630</v>
+      </c>
+      <c r="N10" s="146">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="R6">
-        <v>250</v>
-      </c>
-      <c r="S6">
+        <v>1287</v>
+      </c>
+      <c r="O10" s="146">
         <f t="shared" si="8"/>
-        <v>891</v>
-      </c>
-      <c r="T6">
+        <v>657</v>
+      </c>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="147">
         <f t="shared" si="9"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
+        <v>170</v>
+      </c>
+      <c r="R10" s="147">
+        <v>810</v>
+      </c>
+      <c r="S10" s="147">
+        <f t="shared" si="10"/>
+        <v>1683</v>
+      </c>
+      <c r="T10" s="147">
+        <f t="shared" si="11"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A11" s="142">
+        <v>10</v>
+      </c>
+      <c r="B11" s="146">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="146">
+        <v>325</v>
+      </c>
+      <c r="D11" s="146">
+        <f t="shared" si="3"/>
+        <v>544.5</v>
+      </c>
+      <c r="E11" s="146">
+        <f t="shared" si="4"/>
+        <v>219.5</v>
+      </c>
+      <c r="F11" s="143"/>
+      <c r="G11" s="147">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>135</v>
-      </c>
-      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="H11" s="147">
+        <v>550</v>
+      </c>
+      <c r="I11" s="147">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="J11" s="147">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="K11" s="143"/>
+      <c r="L11" s="146">
         <f t="shared" si="1"/>
-        <v>346.5</v>
-      </c>
-      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="M11" s="146">
+        <v>775</v>
+      </c>
+      <c r="N11" s="146">
+        <f t="shared" si="7"/>
+        <v>1435.5</v>
+      </c>
+      <c r="O11" s="146">
+        <f t="shared" si="8"/>
+        <v>660.5</v>
+      </c>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="147">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="R11" s="147">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="147">
+        <f t="shared" si="10"/>
+        <v>1881</v>
+      </c>
+      <c r="T11" s="147">
+        <f t="shared" si="11"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A12" s="142"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146">
+        <f>SUM(E2:E11)</f>
+        <v>1842.5</v>
+      </c>
+      <c r="F12" s="143"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147">
+        <f>AVERAGE(J2:J11)</f>
+        <v>324.5</v>
+      </c>
+      <c r="K12" s="143"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146">
+        <f>AVERAGE(O2:O11)</f>
+        <v>464.75</v>
+      </c>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147">
+        <f>AVERAGE(T2:T11)</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A13" s="142">
+        <v>11</v>
+      </c>
+      <c r="B13" s="146">
         <f t="shared" si="2"/>
-        <v>211.5</v>
-      </c>
-      <c r="G7">
-        <f>10+(A7-1)*10</f>
         <v>60</v>
       </c>
-      <c r="H7">
-        <v>210</v>
-      </c>
-      <c r="I7">
+      <c r="C13" s="146">
+        <v>385</v>
+      </c>
+      <c r="D13" s="146">
         <f t="shared" si="3"/>
         <v>594</v>
       </c>
-      <c r="J7">
+      <c r="E13" s="146">
         <f t="shared" si="4"/>
-        <v>384</v>
-      </c>
-      <c r="L7">
-        <f>10+(A7-1)*15</f>
-        <v>85</v>
-      </c>
-      <c r="M7">
-        <v>285</v>
-      </c>
-      <c r="N7">
+        <v>209</v>
+      </c>
+      <c r="F13" s="143"/>
+      <c r="G13" s="147">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="H13" s="147">
+        <v>660</v>
+      </c>
+      <c r="I13" s="147">
         <f t="shared" si="5"/>
-        <v>841.5</v>
-      </c>
-      <c r="O7">
+        <v>1089</v>
+      </c>
+      <c r="J13" s="147">
         <f t="shared" si="6"/>
-        <v>556.5</v>
-      </c>
-      <c r="Q7">
+        <v>429</v>
+      </c>
+      <c r="K13" s="143"/>
+      <c r="L13" s="146">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="M13" s="146">
+        <v>935</v>
+      </c>
+      <c r="N13" s="146">
         <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="R7">
-        <v>360</v>
-      </c>
-      <c r="S7">
+        <v>1584</v>
+      </c>
+      <c r="O13" s="146">
         <f t="shared" si="8"/>
-        <v>1089</v>
-      </c>
-      <c r="T7">
+        <v>649</v>
+      </c>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="147">
         <f t="shared" si="9"/>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+        <v>210</v>
+      </c>
+      <c r="R13" s="147">
+        <v>1210</v>
+      </c>
+      <c r="S13" s="147">
+        <f t="shared" si="10"/>
+        <v>2079</v>
+      </c>
+      <c r="T13" s="147">
+        <f t="shared" si="11"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A14" s="142">
+        <v>12</v>
+      </c>
+      <c r="B14" s="146">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="146">
+        <v>450</v>
+      </c>
+      <c r="D14" s="146">
+        <f t="shared" si="3"/>
+        <v>643.5</v>
+      </c>
+      <c r="E14" s="146">
+        <f t="shared" si="4"/>
+        <v>193.5</v>
+      </c>
+      <c r="F14" s="143"/>
+      <c r="G14" s="147">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="H14" s="147">
+        <v>780</v>
+      </c>
+      <c r="I14" s="147">
+        <f t="shared" si="5"/>
+        <v>1188</v>
+      </c>
+      <c r="J14" s="147">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+      <c r="K14" s="143"/>
+      <c r="L14" s="146">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="E8">
+      <c r="M14" s="146">
+        <v>1110</v>
+      </c>
+      <c r="N14" s="146">
+        <f t="shared" si="7"/>
+        <v>1732.5</v>
+      </c>
+      <c r="O14" s="146">
+        <f t="shared" si="8"/>
+        <v>622.5</v>
+      </c>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="147">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="R14" s="147">
+        <v>1440</v>
+      </c>
+      <c r="S14" s="147">
+        <f t="shared" si="10"/>
+        <v>2277</v>
+      </c>
+      <c r="T14" s="147">
+        <f t="shared" si="11"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="142">
+        <v>13</v>
+      </c>
+      <c r="B15" s="146">
         <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-      <c r="G8">
-        <f>10+(A8-1)*10</f>
         <v>70</v>
       </c>
-      <c r="H8">
-        <v>280</v>
-      </c>
-      <c r="I8">
+      <c r="C15" s="146">
+        <v>520</v>
+      </c>
+      <c r="D15" s="146">
         <f t="shared" si="3"/>
         <v>693</v>
       </c>
-      <c r="J8">
+      <c r="E15" s="146">
         <f t="shared" si="4"/>
-        <v>413</v>
-      </c>
-      <c r="L8">
-        <f>10+(A8-1)*15</f>
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>385</v>
-      </c>
-      <c r="N8">
+        <v>173</v>
+      </c>
+      <c r="F15" s="143"/>
+      <c r="G15" s="147">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H15" s="147">
+        <v>910</v>
+      </c>
+      <c r="I15" s="147">
         <f t="shared" si="5"/>
-        <v>990</v>
-      </c>
-      <c r="O8">
+        <v>1287</v>
+      </c>
+      <c r="J15" s="147">
         <f t="shared" si="6"/>
-        <v>605</v>
-      </c>
-      <c r="Q8">
+        <v>377</v>
+      </c>
+      <c r="K15" s="143"/>
+      <c r="L15" s="146">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="M15" s="146">
+        <v>1300</v>
+      </c>
+      <c r="N15" s="146">
         <f t="shared" si="7"/>
-        <v>130</v>
-      </c>
-      <c r="R8">
-        <v>490</v>
-      </c>
-      <c r="S8">
+        <v>1881</v>
+      </c>
+      <c r="O15" s="146">
         <f t="shared" si="8"/>
-        <v>1287</v>
-      </c>
-      <c r="T8">
+        <v>581</v>
+      </c>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="147">
         <f t="shared" si="9"/>
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
+        <v>250</v>
+      </c>
+      <c r="R15" s="147">
+        <v>1690</v>
+      </c>
+      <c r="S15" s="147">
+        <f t="shared" si="10"/>
+        <v>2475</v>
+      </c>
+      <c r="T15" s="147">
+        <f t="shared" si="11"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A16" s="142">
+        <v>14</v>
+      </c>
+      <c r="B16" s="146">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="146">
+        <v>595</v>
+      </c>
+      <c r="D16" s="146">
+        <f t="shared" si="3"/>
+        <v>742.5</v>
+      </c>
+      <c r="E16" s="146">
+        <f t="shared" si="4"/>
+        <v>147.5</v>
+      </c>
+      <c r="F16" s="143"/>
+      <c r="G16" s="147">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>220</v>
-      </c>
-      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="H16" s="147">
+        <v>1050</v>
+      </c>
+      <c r="I16" s="147">
+        <f t="shared" si="5"/>
+        <v>1386</v>
+      </c>
+      <c r="J16" s="147">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="K16" s="143"/>
+      <c r="L16" s="146">
         <f t="shared" si="1"/>
-        <v>445.5</v>
-      </c>
-      <c r="E9">
+        <v>205</v>
+      </c>
+      <c r="M16" s="146">
+        <v>1505</v>
+      </c>
+      <c r="N16" s="146">
+        <f t="shared" si="7"/>
+        <v>2029.5</v>
+      </c>
+      <c r="O16" s="146">
+        <f t="shared" si="8"/>
+        <v>524.5</v>
+      </c>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="147">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="R16" s="147">
+        <v>1960</v>
+      </c>
+      <c r="S16" s="147">
+        <f t="shared" si="10"/>
+        <v>2673</v>
+      </c>
+      <c r="T16" s="147">
+        <f t="shared" si="11"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickTop="1" thickBot="1">
+      <c r="A17" s="144">
+        <v>15</v>
+      </c>
+      <c r="B17" s="146">
         <f t="shared" si="2"/>
-        <v>225.5</v>
-      </c>
-      <c r="G9">
-        <f>10+(A9-1)*10</f>
         <v>80</v>
       </c>
-      <c r="H9">
-        <v>360</v>
-      </c>
-      <c r="I9">
+      <c r="C17" s="146">
+        <v>675</v>
+      </c>
+      <c r="D17" s="146">
         <f t="shared" si="3"/>
         <v>792</v>
       </c>
-      <c r="J9">
+      <c r="E17" s="146">
         <f t="shared" si="4"/>
-        <v>432</v>
-      </c>
-      <c r="L9">
-        <f>10+(A9-1)*15</f>
-        <v>115</v>
-      </c>
-      <c r="M9">
-        <v>500</v>
-      </c>
-      <c r="N9">
+        <v>117</v>
+      </c>
+      <c r="F17" s="145"/>
+      <c r="G17" s="147">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="147">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="147">
         <f t="shared" si="5"/>
-        <v>1138.5</v>
-      </c>
-      <c r="O9">
+        <v>1485</v>
+      </c>
+      <c r="J17" s="147">
         <f t="shared" si="6"/>
-        <v>638.5</v>
-      </c>
-      <c r="Q9">
+        <v>285</v>
+      </c>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="M17" s="146">
+        <v>1725</v>
+      </c>
+      <c r="N17" s="146">
         <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="R9">
-        <v>640</v>
-      </c>
-      <c r="S9">
+        <v>2178</v>
+      </c>
+      <c r="O17" s="146">
         <f t="shared" si="8"/>
-        <v>1485</v>
-      </c>
-      <c r="T9">
+        <v>453</v>
+      </c>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="147">
         <f t="shared" si="9"/>
-        <v>845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
+        <v>290</v>
+      </c>
+      <c r="R17" s="147">
+        <v>2250</v>
+      </c>
+      <c r="S17" s="147">
+        <f t="shared" si="10"/>
+        <v>2871</v>
+      </c>
+      <c r="T17" s="147">
+        <f t="shared" si="11"/>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" thickTop="1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>760</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>841.5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>81.5</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>270</v>
-      </c>
-      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="H18">
+        <v>1360</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>1584</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>495</v>
-      </c>
-      <c r="E10">
+        <v>235</v>
+      </c>
+      <c r="M18">
+        <v>1960</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>2326.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>366.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="R18">
+        <v>2560</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>3069</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="11"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="G10">
-        <f>10+(A10-1)*10</f>
         <v>90</v>
       </c>
-      <c r="H10">
-        <v>450</v>
-      </c>
-      <c r="I10">
+      <c r="C19">
+        <v>850</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="3"/>
         <v>891</v>
       </c>
-      <c r="J10">
+      <c r="E19">
         <f t="shared" si="4"/>
-        <v>441</v>
-      </c>
-      <c r="L10">
-        <f>10+(A10-1)*15</f>
-        <v>130</v>
-      </c>
-      <c r="M10">
-        <v>630</v>
-      </c>
-      <c r="N10">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="H19">
+        <v>1530</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="5"/>
-        <v>1287</v>
-      </c>
-      <c r="O10">
+        <v>1683</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="6"/>
-        <v>657</v>
-      </c>
-      <c r="Q10">
+        <v>153</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="M19">
+        <v>2210</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="R10">
-        <v>810</v>
-      </c>
-      <c r="S10">
+        <v>2475</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="8"/>
-        <v>1683</v>
-      </c>
-      <c r="T10">
+        <v>265</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="9"/>
-        <v>873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>325</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>544.5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>219.5</v>
-      </c>
-      <c r="G11">
-        <f>10+(A11-1)*10</f>
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>550</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>990</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>440</v>
-      </c>
-      <c r="L11">
-        <f>10+(A11-1)*15</f>
-        <v>145</v>
-      </c>
-      <c r="M11">
-        <v>775</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>1435.5</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>660.5</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-      <c r="R11">
-        <v>1000</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="8"/>
-        <v>1881</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="9"/>
-        <v>881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>385</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>594</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>209</v>
-      </c>
-      <c r="G12">
-        <f>10+(A12-1)*10</f>
-        <v>110</v>
-      </c>
-      <c r="H12">
-        <v>660</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>1089</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>429</v>
-      </c>
-      <c r="L12">
-        <f>10+(A12-1)*15</f>
-        <v>160</v>
-      </c>
-      <c r="M12">
-        <v>935</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>1584</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>649</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>210</v>
-      </c>
-      <c r="R12">
-        <v>1210</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="8"/>
-        <v>2079</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="9"/>
-        <v>869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>450</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>643.5</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>193.5</v>
-      </c>
-      <c r="G13">
-        <f>10+(A13-1)*10</f>
-        <v>120</v>
-      </c>
-      <c r="H13">
-        <v>780</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1188</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>408</v>
-      </c>
-      <c r="L13">
-        <f>10+(A13-1)*15</f>
-        <v>175</v>
-      </c>
-      <c r="M13">
-        <v>1110</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>1732.5</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="6"/>
-        <v>622.5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>230</v>
-      </c>
-      <c r="R13">
-        <v>1440</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="8"/>
-        <v>2277</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="9"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>520</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>693</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-      <c r="G14">
-        <f>10+(A14-1)*10</f>
-        <v>130</v>
-      </c>
-      <c r="H14">
-        <v>910</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>1287</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="R19">
+        <v>2890</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>3267</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="11"/>
         <v>377</v>
-      </c>
-      <c r="L14">
-        <f>10+(A14-1)*15</f>
-        <v>190</v>
-      </c>
-      <c r="M14">
-        <v>1300</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>1881</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="6"/>
-        <v>581</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="R14">
-        <v>1690</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="8"/>
-        <v>2475</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="9"/>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>595</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>742.5</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>147.5</v>
-      </c>
-      <c r="G15">
-        <f>10+(A15-1)*10</f>
-        <v>140</v>
-      </c>
-      <c r="H15">
-        <v>1050</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>1386</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>336</v>
-      </c>
-      <c r="L15">
-        <f>10+(A15-1)*15</f>
-        <v>205</v>
-      </c>
-      <c r="M15">
-        <v>1505</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>2029.5</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="6"/>
-        <v>524.5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>270</v>
-      </c>
-      <c r="R15">
-        <v>1960</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="8"/>
-        <v>2673</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="9"/>
-        <v>713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>675</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>792</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="G16">
-        <f>10+(A16-1)*10</f>
-        <v>150</v>
-      </c>
-      <c r="H16">
-        <v>1200</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>1485</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>285</v>
-      </c>
-      <c r="L16">
-        <f>10+(A16-1)*15</f>
-        <v>220</v>
-      </c>
-      <c r="M16">
-        <v>1725</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>2178</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="6"/>
-        <v>453</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-      <c r="R16">
-        <v>2250</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="8"/>
-        <v>2871</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="9"/>
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>760</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>841.5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>81.5</v>
-      </c>
-      <c r="G17">
-        <f>10+(A17-1)*10</f>
-        <v>160</v>
-      </c>
-      <c r="H17">
-        <v>1360</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1584</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>224</v>
-      </c>
-      <c r="L17">
-        <f>10+(A17-1)*15</f>
-        <v>235</v>
-      </c>
-      <c r="M17">
-        <v>1960</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>2326.5</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="6"/>
-        <v>366.5</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>310</v>
-      </c>
-      <c r="R17">
-        <v>2560</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="8"/>
-        <v>3069</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="9"/>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C18">
-        <v>850</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>891</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="G18">
-        <f>10+(A18-1)*10</f>
-        <v>170</v>
-      </c>
-      <c r="H18">
-        <v>1530</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>1683</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>153</v>
-      </c>
-      <c r="L18">
-        <f>10+(A18-1)*15</f>
-        <v>250</v>
-      </c>
-      <c r="M18">
-        <v>2210</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>2475</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="6"/>
-        <v>265</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-      <c r="R18">
-        <v>2890</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="8"/>
-        <v>3267</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="9"/>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="G19">
-        <f>10+(A19-1)*10</f>
-        <v>180</v>
-      </c>
-      <c r="H19">
-        <v>1710</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>1782</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="L19">
-        <f>10+(A19-1)*15</f>
-        <v>265</v>
-      </c>
-      <c r="M19">
-        <v>2475</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>2623.5</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="6"/>
-        <v>148.5</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-      <c r="R19">
-        <v>3240</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="8"/>
-        <v>3465</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="9"/>
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H20">
+        <v>1710</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>1782</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
       <c r="L20">
-        <f>10+(A20-1)*15</f>
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>265</v>
       </c>
       <c r="M20">
-        <v>2755</v>
+        <v>2475</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
-        <v>2772</v>
+        <f t="shared" si="7"/>
+        <v>2623.5</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>148.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>370</v>
+        <f t="shared" si="9"/>
+        <v>350</v>
       </c>
       <c r="R20">
-        <v>3610</v>
+        <v>3240</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
-        <v>3663</v>
+        <f t="shared" si="10"/>
+        <v>3465</v>
       </c>
       <c r="T20">
-        <f t="shared" si="9"/>
-        <v>53</v>
+        <f t="shared" si="11"/>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="M21">
+        <v>2755</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>2772</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>370</v>
+      </c>
+      <c r="R21">
+        <v>3610</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="10"/>
+        <v>3663</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
         <v>29</v>
       </c>
     </row>

--- a/539尾數預測.xlsx
+++ b/539尾數預測.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="539尾數" sheetId="1" r:id="rId1"/>
     <sheet name="花費統計" sheetId="4" r:id="rId2"/>
     <sheet name="工作表2" sheetId="2" r:id="rId3"/>
     <sheet name="工作表1" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -11341,7 +11342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -13016,4 +13017,1167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <f>B1*A1</f>
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <f>B1*9.6</f>
+        <v>48</v>
+      </c>
+      <c r="E1">
+        <f>D1-C1</f>
+        <v>28</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <f>K1*J1</f>
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <f>K1*9.6</f>
+        <v>19.2</v>
+      </c>
+      <c r="N1">
+        <f>M1-L1</f>
+        <v>11.2</v>
+      </c>
+      <c r="O1">
+        <f>L1</f>
+        <v>8</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>10</v>
+      </c>
+      <c r="S1">
+        <f>R1*Q1</f>
+        <v>40</v>
+      </c>
+      <c r="T1">
+        <f>R1*9.6</f>
+        <v>96</v>
+      </c>
+      <c r="U1">
+        <f>T1-S1</f>
+        <v>56</v>
+      </c>
+      <c r="V1">
+        <f>S1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>B2*A2</f>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f>B2*9.6</f>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2-C1</f>
+        <v>30.399999999999991</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L5" si="0">K2*J2</f>
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M5" si="1">K2*9.6</f>
+        <v>38.4</v>
+      </c>
+      <c r="N2">
+        <f>M2-L2-L1</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O2">
+        <f>L2+L1</f>
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S5" si="2">R2*Q2</f>
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T5" si="3">R2*9.6</f>
+        <v>144</v>
+      </c>
+      <c r="U2">
+        <f>T2-S2-S1</f>
+        <v>44</v>
+      </c>
+      <c r="V2">
+        <f>S2+S1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3">
+        <f>SUM(C1:C2)</f>
+        <v>56</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>67.2</v>
+      </c>
+      <c r="N3">
+        <f>M3-L3-L2-L1</f>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="O3">
+        <f>SUM(L1:L3)</f>
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="U3">
+        <f>T3-S3-S2-S1</f>
+        <v>68</v>
+      </c>
+      <c r="V3">
+        <f>SUM(S1:S3)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="N4">
+        <f>M4-L4-L3-L2-L1</f>
+        <v>15.199999999999989</v>
+      </c>
+      <c r="O4">
+        <f>SUM(L1:L4)</f>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="U4">
+        <f>T4-S4-S3-S2-S1</f>
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <f>SUM(S1:S4)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>B5*A5</f>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f>B5*9.6</f>
+        <v>19.2</v>
+      </c>
+      <c r="E5">
+        <f>D5-C5</f>
+        <v>13.2</v>
+      </c>
+      <c r="F5">
+        <f>C5</f>
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="N5">
+        <f>M5-L5-L4-L3-L2-L1</f>
+        <v>0.79999999999998295</v>
+      </c>
+      <c r="O5">
+        <f>SUM(L1:L5)</f>
+        <v>172</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="U5">
+        <f>T5-S5-S4-S3-S2-S1</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>SUM(S1:S5)</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C14" si="4">B6*A6</f>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D14" si="5">B6*9.6</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="E6">
+        <f>D6-SUM($C$5:C6)</f>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="F6">
+        <f>SUM($C$5:C6)</f>
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <f>SUM(L1:L5)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <f>D7-SUM($C$5:C7)</f>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <f>SUM($C$5:C7)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>76.8</v>
+      </c>
+      <c r="E8">
+        <f>D8-SUM($C$5:C8)</f>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="F8">
+        <f>SUM($C$5:C8)</f>
+        <v>54</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f>R8*Q8</f>
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <f>R8*9.6</f>
+        <v>48</v>
+      </c>
+      <c r="U8">
+        <f>T8-S8</f>
+        <v>28</v>
+      </c>
+      <c r="V8">
+        <f>S8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="5"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="E9">
+        <f>D9-SUM($C$5:C9)</f>
+        <v>25.199999999999989</v>
+      </c>
+      <c r="F9">
+        <f>SUM($C$5:C9)</f>
+        <v>90</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S12" si="6">R9*Q9</f>
+        <v>32</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T12" si="7">R9*9.6</f>
+        <v>76.8</v>
+      </c>
+      <c r="U9">
+        <f>T9-S9-S8</f>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="V9">
+        <f>S9+S8</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="E10">
+        <f>D10-SUM($C$5:C10)</f>
+        <v>22.199999999999989</v>
+      </c>
+      <c r="F10">
+        <f>SUM($C$5:C10)</f>
+        <v>141</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>K10*J10</f>
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <f>K10*9.6</f>
+        <v>19.2</v>
+      </c>
+      <c r="N10">
+        <f>M10-L10</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="O10">
+        <f>L10</f>
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>124.8</v>
+      </c>
+      <c r="U10">
+        <f>T10-S10-S9-S8</f>
+        <v>20.799999999999997</v>
+      </c>
+      <c r="V10">
+        <f>SUM(S8:S10)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="E11">
+        <f>D11-SUM($C$5:C11)</f>
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f>SUM($C$5:C11)</f>
+        <v>216</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L12" si="8">K11*J11</f>
+        <v>96</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M12" si="9">K11*9.6</f>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="N11">
+        <f>M11-L11-L10</f>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="O11">
+        <f>L11+L10</f>
+        <v>112</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>220.79999999999998</v>
+      </c>
+      <c r="U11">
+        <f>T11-S11-S10-S9-S8</f>
+        <v>24.799999999999983</v>
+      </c>
+      <c r="V11">
+        <f>SUM(S8:S11)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="E12">
+        <f>D12-SUM($C$5:C12)</f>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>SUM($C$5:C12)</f>
+        <v>321</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>72</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="N12">
+        <f>M12-L12-L11-L10</f>
+        <v>3.1999999999999318</v>
+      </c>
+      <c r="O12">
+        <f>SUM(L10:L12)</f>
+        <v>688</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>35</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="U12">
+        <f>T12-S12-S11-S10-S9-S8</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>SUM(S8:S12)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="E13">
+        <f>D13-SUM($C$5:C13)</f>
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <f>SUM($C$5:C13)</f>
+        <v>471</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M10:M12)</f>
+        <v>825.59999999999991</v>
+      </c>
+      <c r="S13">
+        <f>SUM(S8:S12)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="E14">
+        <f>D14-SUM($C$5:C14)</f>
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <f>SUM($C$5:C14)</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f>K15*J15</f>
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f>K15*9.6</f>
+        <v>19.2</v>
+      </c>
+      <c r="N15">
+        <f>M15-L15</f>
+        <v>11.2</v>
+      </c>
+      <c r="O15">
+        <f>L15</f>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <f>R15*Q15</f>
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <f>R15*9.6</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="U15">
+        <f>T15-S15</f>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="V15">
+        <f>S15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L19" si="10">K16*J16</f>
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="11">K16*9.6</f>
+        <v>38.4</v>
+      </c>
+      <c r="N16">
+        <f>M16-L16-L15</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O16">
+        <f>L16+L15</f>
+        <v>24</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S19" si="12">R16*Q16</f>
+        <v>20</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ref="T16:T19" si="13">R16*9.6</f>
+        <v>48</v>
+      </c>
+      <c r="U16">
+        <f>T16-S16-S15</f>
+        <v>16</v>
+      </c>
+      <c r="V16">
+        <f>S16+S15</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="7:22">
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="11"/>
+        <v>67.2</v>
+      </c>
+      <c r="N17">
+        <f>M17-L17-L16-L15</f>
+        <v>15.200000000000003</v>
+      </c>
+      <c r="O17">
+        <f>SUM(L15:L17)</f>
+        <v>52</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="U17">
+        <f>T17-S17-S16-S15</f>
+        <v>18.399999999999991</v>
+      </c>
+      <c r="V17">
+        <f>SUM(S15:S17)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22">
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="N18">
+        <f>M18-L18-L17-L16-L15</f>
+        <v>15.199999999999989</v>
+      </c>
+      <c r="O18">
+        <f>SUM(L15:L18)</f>
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
+      <c r="U18">
+        <f>T18-S18-S17-S16-S15</f>
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <f>SUM(S15:S18)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+      <c r="N19">
+        <f>M19-L19-L18-L17-L16-L15</f>
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <f>SUM(L15:L19)</f>
+        <v>180</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>25</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="U19">
+        <f>T19-S19-S18-S17-S16-S15</f>
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <f>SUM(S15:S19)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="7:22">
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="14">K20*J20</f>
+        <v>120</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="15">K20*9.6</f>
+        <v>288</v>
+      </c>
+      <c r="N20">
+        <f>M20-L20-L19-L18-L17-L16</f>
+        <v>-4</v>
+      </c>
+      <c r="O20">
+        <f>SUM(L16:L20)</f>
+        <v>292</v>
+      </c>
+      <c r="S20">
+        <f>SUM(S15:S19)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="7:22">
+      <c r="L21">
+        <f>SUM(L15:L20)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="7:22">
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f>$H$28*$G$28</f>
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <f>H28*9.6</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:22">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I38" si="16">$H$28*$G$28</f>
+        <v>80</v>
+      </c>
+      <c r="J29">
+        <f>$J$28*H29</f>
+        <v>19.2</v>
+      </c>
+      <c r="K29">
+        <f>J29-I29</f>
+        <v>-60.8</v>
+      </c>
+    </row>
+    <row r="30" spans="7:22">
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J38" si="17">$J$28*H30</f>
+        <v>38.4</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K38" si="18">J30-I30</f>
+        <v>-41.6</v>
+      </c>
+    </row>
+    <row r="31" spans="7:22">
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="17"/>
+        <v>57.599999999999994</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="18"/>
+        <v>-22.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="7:22">
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="17"/>
+        <v>76.8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="18"/>
+        <v>-3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="17"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="18"/>
+        <v>35.199999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="17"/>
+        <v>134.4</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="18"/>
+        <v>54.400000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="17"/>
+        <v>153.6</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="18"/>
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="17"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="18"/>
+        <v>92.799999999999983</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="17"/>
+        <v>192</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="18"/>
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/539尾數預測.xlsx
+++ b/539尾數預測.xlsx
@@ -13023,8 +13023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13397,14 +13397,14 @@
         <v>54</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
       <c r="S8">
         <f>R8*Q8</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8">
         <f>R8*9.6</f>
@@ -13412,11 +13412,11 @@
       </c>
       <c r="U8">
         <f>T8-S8</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="V8">
         <f>S8</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -13443,26 +13443,26 @@
         <v>90</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S9">
         <f t="shared" ref="S9:S12" si="6">R9*Q9</f>
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="T9">
         <f t="shared" ref="T9:T12" si="7">R9*9.6</f>
-        <v>76.8</v>
+        <v>144</v>
       </c>
       <c r="U9">
         <f>T9-S9-S8</f>
-        <v>24.799999999999997</v>
+        <v>24</v>
       </c>
       <c r="V9">
         <f>S9+S8</f>
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -13511,26 +13511,26 @@
         <v>16</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>124.8</v>
+        <v>432</v>
       </c>
       <c r="U10">
         <f>T10-S10-S9-S8</f>
-        <v>20.799999999999997</v>
+        <v>42</v>
       </c>
       <c r="V10">
         <f>SUM(S8:S10)</f>
-        <v>104</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -13579,26 +13579,26 @@
         <v>112</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>810</v>
       </c>
       <c r="T11">
         <f t="shared" si="7"/>
-        <v>220.79999999999998</v>
+        <v>1296</v>
       </c>
       <c r="U11">
         <f>T11-S11-S10-S9-S8</f>
-        <v>24.799999999999983</v>
+        <v>96</v>
       </c>
       <c r="V11">
         <f>SUM(S8:S11)</f>
-        <v>196</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -13646,28 +13646,6 @@
         <f>SUM(L10:L12)</f>
         <v>688</v>
       </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
-      <c r="R12">
-        <v>35</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="7"/>
-        <v>336</v>
-      </c>
-      <c r="U12">
-        <f>T12-S12-S11-S10-S9-S8</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>SUM(S8:S12)</f>
-        <v>336</v>
-      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
@@ -13698,7 +13676,7 @@
       </c>
       <c r="S13">
         <f>SUM(S8:S12)</f>
-        <v>336</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -13817,7 +13795,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="7:22">
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f>B17*A17</f>
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <f>7.52*B17</f>
+        <v>752</v>
+      </c>
+      <c r="E17">
+        <f>D17-C17</f>
+        <v>252</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="J17">
         <v>4</v>
       </c>
@@ -13863,7 +13862,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="7:22">
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f>B17*3</f>
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C21" si="14">B18*A18</f>
+        <v>1500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="15">7.52*B18</f>
+        <v>2256</v>
+      </c>
+      <c r="E18">
+        <f>D18-SUM($C$17:C18)</f>
+        <v>256</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
       <c r="J18">
         <v>4</v>
       </c>
@@ -13909,7 +13930,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="7:22">
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B21" si="16">B18*3</f>
+        <v>900</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="15"/>
+        <v>6768</v>
+      </c>
+      <c r="E19">
+        <f>D19-SUM($C$17:C19)</f>
+        <v>268</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
       <c r="J19">
         <v>4</v>
       </c>
@@ -13955,7 +13998,29 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="7:22">
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="16"/>
+        <v>2700</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="14"/>
+        <v>13500</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="15"/>
+        <v>20304</v>
+      </c>
+      <c r="E20">
+        <f>D20-SUM($C$17:C20)</f>
+        <v>304</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
       <c r="J20">
         <v>4</v>
       </c>
@@ -13963,11 +14028,11 @@
         <v>30</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20" si="14">K20*J20</f>
+        <f t="shared" ref="L20" si="17">K20*J20</f>
         <v>120</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20" si="15">K20*9.6</f>
+        <f t="shared" ref="M20" si="18">K20*9.6</f>
         <v>288</v>
       </c>
       <c r="N20">
@@ -13983,13 +14048,104 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="7:22">
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="16"/>
+        <v>8100</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="14"/>
+        <v>40500</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="15"/>
+        <v>60912</v>
+      </c>
+      <c r="E21">
+        <f>D21-SUM($C$17:C21)</f>
+        <v>412</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
       <c r="L21">
         <f>SUM(L15:L20)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="7:22">
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f>B26*A26</f>
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <f>7.52*B26</f>
+        <v>376</v>
+      </c>
+      <c r="E26">
+        <f>D26-C26</f>
+        <v>226</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <f>B26*2</f>
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C30" si="19">B27*A27</f>
+        <v>300</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D30" si="20">7.52*B27</f>
+        <v>752</v>
+      </c>
+      <c r="E27">
+        <f>D27-SUM($C$26:C27)</f>
+        <v>302</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B30" si="21">B27*2</f>
+        <v>200</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="19"/>
+        <v>600</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="20"/>
+        <v>1504</v>
+      </c>
+      <c r="E28">
+        <f>D28-SUM($C$26:C28)</f>
+        <v>454</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
       <c r="G28">
         <v>40</v>
       </c>
@@ -14005,12 +14161,34 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="29" spans="7:22">
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="21"/>
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="20"/>
+        <v>3008</v>
+      </c>
+      <c r="E29">
+        <f>D29-SUM($C$26:C29)</f>
+        <v>758</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I38" si="16">$H$28*$G$28</f>
+        <f t="shared" ref="I29:I38" si="22">$H$28*$G$28</f>
         <v>80</v>
       </c>
       <c r="J29">
@@ -14022,54 +14200,80 @@
         <v>-60.8</v>
       </c>
     </row>
-    <row r="30" spans="7:22">
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="20"/>
+        <v>6016</v>
+      </c>
+      <c r="E30">
+        <f>D30-SUM($C$26:C30)</f>
+        <v>1366</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J30">
-        <f t="shared" ref="J30:J38" si="17">$J$28*H30</f>
+        <f t="shared" ref="J30:J38" si="23">$J$28*H30</f>
         <v>38.4</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K38" si="18">J30-I30</f>
+        <f t="shared" ref="K30:K38" si="24">J30-I30</f>
         <v>-41.6</v>
       </c>
     </row>
-    <row r="31" spans="7:22">
+    <row r="31" spans="1:22">
+      <c r="C31">
+        <f>SUM(C26:C30)</f>
+        <v>4650</v>
+      </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>57.599999999999994</v>
       </c>
       <c r="K31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-22.400000000000006</v>
       </c>
     </row>
-    <row r="32" spans="7:22">
+    <row r="32" spans="1:22">
       <c r="H32">
         <v>4</v>
       </c>
       <c r="I32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>76.8</v>
       </c>
       <c r="K32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>-3.2000000000000028</v>
       </c>
     </row>
@@ -14078,15 +14282,15 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="K33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
     </row>
@@ -14095,15 +14299,15 @@
         <v>6</v>
       </c>
       <c r="I34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>115.19999999999999</v>
       </c>
       <c r="K34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>35.199999999999989</v>
       </c>
     </row>
@@ -14112,15 +14316,15 @@
         <v>7</v>
       </c>
       <c r="I35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>134.4</v>
       </c>
       <c r="K35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>54.400000000000006</v>
       </c>
     </row>
@@ -14129,15 +14333,15 @@
         <v>8</v>
       </c>
       <c r="I36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>153.6</v>
       </c>
       <c r="K36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>73.599999999999994</v>
       </c>
     </row>
@@ -14146,15 +14350,15 @@
         <v>9</v>
       </c>
       <c r="I37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>172.79999999999998</v>
       </c>
       <c r="K37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>92.799999999999983</v>
       </c>
     </row>
@@ -14163,15 +14367,15 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="J38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>192</v>
       </c>
       <c r="K38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>112</v>
       </c>
     </row>
